--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
   <si>
     <t>土地坐落</t>
   </si>
@@ -343,6 +343,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
   </si>
   <si>
     <t>宸鴻光電科技股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
   </si>
   <si>
     <t>名</t>
@@ -1967,13 +1979,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1992,13 +2004,22 @@
       <c r="G1" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -2015,13 +2036,22 @@
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -2038,13 +2068,22 @@
       <c r="G3" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -2060,6 +2099,15 @@
       </c>
       <c r="G4" s="2">
         <v>30000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2077,22 +2125,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2100,14 +2148,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2117,22 +2165,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2153,19 +2201,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2173,22 +2221,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2206,22 +2254,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2232,19 +2280,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,19 +2303,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,19 +2326,19 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,19 +2372,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,19 +2395,19 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,19 +2418,19 @@
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2393,19 +2441,19 @@
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
   <si>
     <t>土地坐落</t>
   </si>
@@ -343,6 +343,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -358,7 +361,10 @@
     <t>兆赫電子</t>
   </si>
   <si>
-    <t>宸鴻光電科技股份有限公 司</t>
+    <t>宸鴻光電科技股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-05-01</t>
@@ -1979,13 +1985,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2013,13 +2019,16 @@
       <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -2037,21 +2046,24 @@
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -2069,21 +2081,24 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2">
+        <v>115</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2">
         <v>551</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -2101,12 +2116,15 @@
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2">
+        <v>115</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
         <v>551</v>
       </c>
     </row>
@@ -2125,22 +2143,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2148,14 +2166,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2165,22 +2183,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2201,19 +2219,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2221,22 +2239,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2254,22 +2272,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2280,19 +2298,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2303,19 +2321,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2326,19 +2344,19 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2349,19 +2367,19 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2372,19 +2390,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2395,19 +2413,19 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2418,19 +2436,19 @@
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2441,19 +2459,19 @@
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="164">
   <si>
     <t>土地坐落</t>
   </si>
@@ -346,6 +346,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -355,6 +358,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -367,7 +376,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmp6aad1</t>
   </si>
   <si>
     <t>名</t>
@@ -1985,13 +2000,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -2022,13 +2037,22 @@
       <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -2046,24 +2070,33 @@
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="2">
+        <v>119</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2">
         <v>551</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -2081,24 +2114,33 @@
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="2">
+        <v>119</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -2116,16 +2158,25 @@
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="2">
+        <v>119</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2">
         <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2143,22 +2194,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2166,14 +2217,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2183,22 +2234,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2219,19 +2270,19 @@
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2239,22 +2290,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2272,22 +2323,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2298,19 +2349,19 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2321,19 +2372,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2344,19 +2395,19 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2367,19 +2418,19 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2390,19 +2441,19 @@
         <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2413,19 +2464,19 @@
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2436,19 +2487,19 @@
         <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2459,19 +2510,19 @@
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,9 +20,276 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="164">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="167">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00820005地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00830001地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區中正段三小段00830007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06810000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06820000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06850000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06860000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06920000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06930000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06940000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣布袋鎮復興段06990000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段01240007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉龍蚊段工業小段00390000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉新店段19160000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄕岸腳段15570000</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段17060000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段17080000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸脚段17090000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段17100000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段17150000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉下潭段00170009地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子脚段05950001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970001地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970002地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草鄉竹子腳段05970007地號</t>
+  </si>
+  <si>
+    <t>嘉義縣鹿草郷竹子腳段05970015地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大塘郷埔北段09630000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大埔鄉埔北段09640000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣大埔鄉埔北段09650000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉新店段19440000地號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉義竹段04070004地號</t>
+  </si>
+  <si>
+    <t>10000分之241</t>
+  </si>
+  <si>
+    <t>4240分之77</t>
+  </si>
+  <si>
+    <t>10分之1</t>
+  </si>
+  <si>
+    <t>12720分之976</t>
+  </si>
+  <si>
+    <t>12720分之231</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>184分之36</t>
+  </si>
+  <si>
+    <t>4分之3</t>
+  </si>
+  <si>
+    <t>298分之66</t>
+  </si>
+  <si>
+    <t>翁重鈞</t>
+  </si>
+  <si>
+    <t>翁重釣</t>
+  </si>
+  <si>
+    <t>翁重韵</t>
+  </si>
+  <si>
+    <t>翁張宗美</t>
+  </si>
+  <si>
+    <t>87年06月03日</t>
+  </si>
+  <si>
+    <t>87年09月17日</t>
+  </si>
+  <si>
+    <t>80年12月16日</t>
+  </si>
+  <si>
+    <t>88年07月13曰</t>
+  </si>
+  <si>
+    <t>88年07月13日</t>
+  </si>
+  <si>
+    <t>88年08月23日</t>
+  </si>
+  <si>
+    <t>96年08月27日</t>
+  </si>
+  <si>
+    <t>74年10月18日</t>
+  </si>
+  <si>
+    <t>70年06月18日</t>
+  </si>
+  <si>
+    <t>78年06月</t>
+  </si>
+  <si>
+    <t>80年07月24日</t>
+  </si>
+  <si>
+    <t>75年05月13曰</t>
+  </si>
+  <si>
+    <t>75年05月13日</t>
+  </si>
+  <si>
+    <t>80年07月24曰</t>
+  </si>
+  <si>
+    <t>96年09月04日</t>
+  </si>
+  <si>
+    <t>77年06月28日</t>
+  </si>
+  <si>
+    <t>79年03月14日</t>
+  </si>
+  <si>
+    <t>81年08月24日</t>
+  </si>
+  <si>
+    <t>90年07月25日</t>
+  </si>
+  <si>
+    <t>93年06月28日</t>
+  </si>
+  <si>
+    <t>100年07月01日</t>
+  </si>
+  <si>
+    <t>100年07月01曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmp6aad1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,259 +310,37 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區中正段三小段 0082-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 0083-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 0083-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0681 -0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0682-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0685-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0686-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0692-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0693-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0694-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣布袋鎮復興段0699-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段0124-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉龍蚊段工業小段 0039-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉新店段1916-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄕岸腳段1557-0000</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段1706-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段1708-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸脚段1709-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段1710-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段1715-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉下潭段0017-0009 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子脚段 0595-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0001 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0002 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草鄉竹子腳段 0597-0007 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣鹿草郷竹子腳段 0597-0015 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大塘郷埔北段0963-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大埔鄉埔北段0964-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣大埔鄉埔北段0965-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉新店段1944-0000 地號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉義竹段0407-0004 地號</t>
-  </si>
-  <si>
-    <t>10000分之 241</t>
-  </si>
-  <si>
-    <t>4240分之 77</t>
-  </si>
-  <si>
-    <t>10分之1</t>
-  </si>
-  <si>
-    <t>12720分之 976</t>
-  </si>
-  <si>
-    <t>12720分之 231</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>184分之36</t>
-  </si>
-  <si>
-    <t>4分之3</t>
-  </si>
-  <si>
-    <t>298分之66</t>
-  </si>
-  <si>
-    <t>翁重鈞</t>
-  </si>
-  <si>
-    <t>翁重鈞•</t>
-  </si>
-  <si>
-    <t>翁重釣</t>
-  </si>
-  <si>
-    <t>翁重韵</t>
-  </si>
-  <si>
-    <t>翁張宗美</t>
-  </si>
-  <si>
-    <t>87年06月 03日</t>
-  </si>
-  <si>
-    <t>87年09月 17日</t>
-  </si>
-  <si>
-    <t>80年12月 16日</t>
-  </si>
-  <si>
-    <t>88年07月 13曰</t>
-  </si>
-  <si>
-    <t>88年07月 13日</t>
-  </si>
-  <si>
-    <t>88年08月 23日</t>
-  </si>
-  <si>
-    <t>96年08月 27日</t>
-  </si>
-  <si>
-    <t>74年10月 18日</t>
-  </si>
-  <si>
-    <t>70年06月 18日</t>
-  </si>
-  <si>
-    <t>78年06月</t>
-  </si>
-  <si>
-    <t>80年07月 24日</t>
-  </si>
-  <si>
-    <t>75年05月 13曰</t>
-  </si>
-  <si>
-    <t>75年05月 13日</t>
-  </si>
-  <si>
-    <t>80年07月 24曰</t>
-  </si>
-  <si>
-    <t>96年09月 04日</t>
-  </si>
-  <si>
-    <t>77年06月 28日</t>
-  </si>
-  <si>
-    <t>79年03月 14日</t>
-  </si>
-  <si>
-    <t>81年08月 24日</t>
-  </si>
-  <si>
-    <t>90年07月 25日</t>
-  </si>
-  <si>
-    <t>93年06月 28日</t>
-  </si>
-  <si>
-    <t>100 年 07 月01日</t>
-  </si>
-  <si>
-    <t>100 年 07 月01曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>'(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中正區中正段三小段 00404-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹郷龍蛟段工業小段 00065-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段00019-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段00029-000 建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段01558-000 建號</t>
+    <t>臺北市中正區中正段三小段00404000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹郷龍蛟段工業小段00065000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段00019000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
   </si>
   <si>
     <t>嘉義縣義竹鄉未編號</t>
   </si>
   <si>
-    <t>87年09月 17曰</t>
-  </si>
-  <si>
-    <t>98年02月 10日</t>
-  </si>
-  <si>
-    <t>100 年 07 月15曰</t>
+    <t>87年09月17曰</t>
+  </si>
+  <si>
+    <t>98年02月10日</t>
+  </si>
+  <si>
+    <t>100年07月15曰</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>(超過五年,陽 台）</t>
+    <t>(超過五年陽台）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -313,7 +358,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>合作金庫商業銀行景美分 行</t>
+    <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -325,12 +370,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -343,27 +382,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>東麗紙業</t>
   </si>
   <si>
@@ -376,15 +394,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>tmp6aad1</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
@@ -403,22 +412,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寳、古董、字畫及身</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寳古董字畫及身</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>I額：新臺幣 元）</t>
+    <t>I額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -445,10 +454,10 @@
     <t>抵押權</t>
   </si>
   <si>
-    <t>臺灣銀行世貿分行 臺北市松山區基隆路</t>
-  </si>
-  <si>
-    <t>95年11月 16曰</t>
+    <t>臺灣銀行世貿分行臺北市松山區基隆路</t>
+  </si>
+  <si>
+    <t>95年11月16曰</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -484,31 +493,31 @@
     <t>宏遠証券(股)公司</t>
   </si>
   <si>
-    <t>嘉義縣龍蚊村義工三路10 號</t>
-  </si>
-  <si>
-    <t>嘉義縣龍蛟村義工三路10 號</t>
-  </si>
-  <si>
-    <t>臺北市忠孝東路四段230號 5樓</t>
+    <t>嘉義縣龍蚊村義工三路10號</t>
+  </si>
+  <si>
+    <t>嘉義縣龍蛟村義工三路10號</t>
+  </si>
+  <si>
+    <t>臺北市忠孝東路四段230號5樓</t>
   </si>
   <si>
     <t>臺北市信義路四段236號3F</t>
   </si>
   <si>
-    <t>86年09月 30日</t>
-  </si>
-  <si>
-    <t>85年02月 05日</t>
-  </si>
-  <si>
-    <t>74年03月 26日</t>
-  </si>
-  <si>
-    <t>94年09月 06日</t>
-  </si>
-  <si>
-    <t>99年01月 01日</t>
+    <t>86年09月30日</t>
+  </si>
+  <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>74年03月26日</t>
+  </si>
+  <si>
+    <t>94年09月06日</t>
+  </si>
+  <si>
+    <t>99年01月01日</t>
   </si>
   <si>
     <t>投資</t>
@@ -870,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,837 +907,1530 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2">
+        <v>551</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>727</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2">
+        <v>551</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>735</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2">
+        <v>551</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>909.01</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="2">
+        <v>551</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="2">
+        <v>551</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>299.99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2">
+        <v>551</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>17.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2">
+        <v>551</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>45.21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="2">
+        <v>551</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>8.01</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="2">
+        <v>551</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>645.03</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="2">
+        <v>551</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>141.65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="2">
+        <v>551</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>2432</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H13" s="2">
         <v>4377528</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="2">
+        <v>551</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>2089</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2">
+        <v>551</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>3915</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="2">
+        <v>551</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>622</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="2">
+        <v>551</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="2">
+        <v>551</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2">
+        <v>551</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="2">
+        <v>551</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="2">
+        <v>551</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2">
+        <v>551</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H22" s="2">
         <v>100772</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2">
+        <v>551</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2">
+        <v>551</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="2">
+        <v>551</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="2">
+        <v>551</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="2">
+        <v>551</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="2">
+        <v>551</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>1221.37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="2">
+        <v>551</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>252.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2">
+        <v>551</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>159.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2">
+        <v>551</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>3000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H31" s="2">
         <v>1350000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2">
+        <v>551</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>141.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H32" s="2">
         <v>138900</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2">
+        <v>551</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2">
         <v>334.6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H33" s="2">
         <v>42500</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2">
+        <v>551</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1746,25 +2448,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1772,25 +2474,25 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>150.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1798,25 +2500,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>1120.7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1824,22 +2526,22 @@
         <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>366.3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2">
         <v>440200</v>
@@ -1850,22 +2552,22 @@
         <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>142.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2">
         <v>2738900</v>
@@ -1876,22 +2578,22 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>93.21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2">
         <v>166000</v>
@@ -1902,22 +2604,22 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>226.4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2">
         <v>245400</v>
@@ -1938,19 +2640,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1958,16 +2660,16 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2">
         <v>1211482</v>
@@ -1978,16 +2680,16 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2">
         <v>645056</v>
@@ -2008,43 +2710,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2052,10 +2754,10 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <v>200000</v>
@@ -2064,28 +2766,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
         <v>90</v>
@@ -2096,10 +2798,10 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2">
         <v>20000</v>
@@ -2108,28 +2810,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2">
         <v>551</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
         <v>91</v>
@@ -2140,10 +2842,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -2152,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2">
         <v>551</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
         <v>92</v>
@@ -2194,22 +2896,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2217,14 +2919,14 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2234,22 +2936,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2267,22 +2969,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2290,22 +2992,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2323,22 +3025,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2346,22 +3048,22 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2369,22 +3071,22 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2392,22 +3094,22 @@
         <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2415,22 +3117,22 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2438,22 +3140,22 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2461,22 +3163,22 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2484,22 +3186,22 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2507,22 +3209,22 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市中正區中正段三小段00820005地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中正區中正段三小段00830001地號</t>
@@ -199,9 +202,6 @@
     <t>翁張宗美</t>
   </si>
   <si>
-    <t>87年06月03日</t>
-  </si>
-  <si>
     <t>87年09月17日</t>
   </si>
   <si>
@@ -289,30 +289,15 @@
     <t>tmp6aad1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市中正區中正段三小段00404000建號</t>
   </si>
   <si>
+    <t>87年09月17曰</t>
+  </si>
+  <si>
+    <t>(超過五年陽台）</t>
+  </si>
+  <si>
     <t>嘉義縣義竹郷龍蛟段工業小段00065000建號</t>
   </si>
   <si>
@@ -328,9 +313,6 @@
     <t>嘉義縣義竹鄉未編號</t>
   </si>
   <si>
-    <t>87年09月17曰</t>
-  </si>
-  <si>
     <t>98年02月10日</t>
   </si>
   <si>
@@ -340,117 +322,63 @@
     <t>新建</t>
   </si>
   <si>
-    <t>(超過五年陽台）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>合作金庫商業銀行景美分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>兆赫電子</t>
+  </si>
+  <si>
+    <t>宸鴻光電科技股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>(九）珠寳古董字畫及身</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>I額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行景美分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>東麗紙業</t>
-  </si>
-  <si>
-    <t>兆赫電子</t>
-  </si>
-  <si>
-    <t>宸鴻光電科技股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寳古董字畫及身</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>I額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>抵押權</t>
   </si>
   <si>
@@ -463,21 +391,18 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>五王糧食股份有限公司</t>
   </si>
   <si>
+    <t>嘉義縣龍蚊村義工三路10號</t>
+  </si>
+  <si>
+    <t>86年09月30日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
     <t>玉豐糧食股份有限公司</t>
   </si>
   <si>
@@ -493,9 +418,6 @@
     <t>宏遠証券(股)公司</t>
   </si>
   <si>
-    <t>嘉義縣龍蚊村義工三路10號</t>
-  </si>
-  <si>
     <t>嘉義縣龍蛟村義工三路10號</t>
   </si>
   <si>
@@ -505,9 +427,6 @@
     <t>臺北市信義路四段236號3F</t>
   </si>
   <si>
-    <t>86年09月30日</t>
-  </si>
-  <si>
     <t>85年02月05日</t>
   </si>
   <si>
@@ -518,9 +437,6 @@
   </si>
   <si>
     <t>99年01月01日</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -879,13 +795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,25 +844,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>17</v>
+        <v>727</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>81</v>
@@ -964,7 +886,7 @@
         <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M2" s="2">
         <v>551</v>
@@ -973,24 +895,30 @@
         <v>88</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0241</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>17.5207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>60</v>
@@ -1011,7 +939,7 @@
         <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" s="2">
         <v>551</v>
@@ -1020,30 +948,36 @@
         <v>88</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0241</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>17.7135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>735</v>
+        <v>909.01</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>84</v>
@@ -1058,7 +992,7 @@
         <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2">
         <v>551</v>
@@ -1067,27 +1001,33 @@
         <v>88</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0181603773584906</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>16.5079646226415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>909.01</v>
+        <v>424</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>82</v>
@@ -1105,7 +1045,7 @@
         <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="2">
         <v>551</v>
@@ -1114,27 +1054,33 @@
         <v>88</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>424</v>
+        <v>299.99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>82</v>
@@ -1152,7 +1098,7 @@
         <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6" s="2">
         <v>551</v>
@@ -1161,27 +1107,33 @@
         <v>88</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>29.999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>299.99</v>
+        <v>17.38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>82</v>
@@ -1199,7 +1151,7 @@
         <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2">
         <v>551</v>
@@ -1208,27 +1160,33 @@
         <v>88</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>17.38</v>
+        <v>45.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>82</v>
@@ -1246,7 +1204,7 @@
         <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2">
         <v>551</v>
@@ -1255,27 +1213,33 @@
         <v>88</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4.521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>45.21</v>
+        <v>8.01</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>82</v>
@@ -1293,7 +1257,7 @@
         <v>87</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="2">
         <v>551</v>
@@ -1302,27 +1266,33 @@
         <v>88</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>8.01</v>
+        <v>645.03</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>82</v>
@@ -1340,7 +1310,7 @@
         <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="2">
         <v>551</v>
@@ -1349,24 +1319,30 @@
         <v>88</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0767295597484277</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>49.4928679245283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>645.03</v>
+        <v>141.65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>64</v>
@@ -1387,7 +1363,7 @@
         <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M11" s="2">
         <v>551</v>
@@ -1396,33 +1372,39 @@
         <v>88</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0181603773584906</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.57241745283019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>141.65</v>
+        <v>2432</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>84</v>
+      <c r="H12" s="2">
+        <v>4377528</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>85</v>
@@ -1434,7 +1416,7 @@
         <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" s="2">
         <v>551</v>
@@ -1443,33 +1425,39 @@
         <v>88</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2432</v>
+        <v>2089</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="2">
-        <v>4377528</v>
+      <c r="H13" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>85</v>
@@ -1481,7 +1469,7 @@
         <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M13" s="2">
         <v>551</v>
@@ -1490,27 +1478,33 @@
         <v>88</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>2089</v>
+        <v>3915</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>82</v>
@@ -1528,7 +1522,7 @@
         <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="2">
         <v>551</v>
@@ -1537,27 +1531,33 @@
         <v>88</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>3915</v>
+        <v>622</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>82</v>
@@ -1575,7 +1575,7 @@
         <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="2">
         <v>551</v>
@@ -1584,27 +1584,33 @@
         <v>88</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>207.333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>622</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>82</v>
@@ -1622,7 +1628,7 @@
         <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M16" s="2">
         <v>551</v>
@@ -1631,27 +1637,33 @@
         <v>88</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>82</v>
@@ -1669,7 +1681,7 @@
         <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M17" s="2">
         <v>551</v>
@@ -1678,27 +1690,33 @@
         <v>88</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>82</v>
@@ -1716,7 +1734,7 @@
         <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M18" s="2">
         <v>551</v>
@@ -1725,27 +1743,33 @@
         <v>88</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>82</v>
@@ -1763,7 +1787,7 @@
         <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M19" s="2">
         <v>551</v>
@@ -1772,27 +1796,33 @@
         <v>88</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>82</v>
@@ -1810,7 +1840,7 @@
         <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M20" s="2">
         <v>551</v>
@@ -1819,33 +1849,39 @@
         <v>88</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>84</v>
+      <c r="H21" s="2">
+        <v>100772</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>85</v>
@@ -1857,7 +1893,7 @@
         <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="2">
         <v>551</v>
@@ -1866,33 +1902,39 @@
         <v>88</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.195652173913043</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="2">
-        <v>100772</v>
+      <c r="H22" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>85</v>
@@ -1904,7 +1946,7 @@
         <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M22" s="2">
         <v>551</v>
@@ -1913,27 +1955,33 @@
         <v>88</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>82</v>
@@ -1951,7 +1999,7 @@
         <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M23" s="2">
         <v>551</v>
@@ -1960,24 +2008,30 @@
         <v>88</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>75</v>
@@ -1998,7 +2052,7 @@
         <v>87</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M24" s="2">
         <v>551</v>
@@ -2007,27 +2061,33 @@
         <v>88</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>82</v>
@@ -2045,7 +2105,7 @@
         <v>87</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M25" s="2">
         <v>551</v>
@@ -2054,24 +2114,30 @@
         <v>88</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>74</v>
@@ -2092,39 +2158,45 @@
         <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="2">
+        <v>551</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1221.37</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="2">
-        <v>551</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O26" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2">
-        <v>65</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>84</v>
@@ -2139,36 +2211,42 @@
         <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="2">
+        <v>551</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="2">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>270.504765100671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2">
+        <v>252.6</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="2">
-        <v>551</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O27" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1221.37</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>83</v>
@@ -2186,36 +2264,42 @@
         <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="2">
+        <v>551</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>55.944966442953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>159.25</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="2">
-        <v>551</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>252.6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>83</v>
@@ -2233,7 +2317,7 @@
         <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M29" s="2">
         <v>551</v>
@@ -2242,33 +2326,39 @@
         <v>88</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.221476510067114</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>35.2701342281879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="2">
-        <v>159.25</v>
+        <v>3000</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>84</v>
+      <c r="H30" s="2">
+        <v>1350000</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>85</v>
@@ -2280,7 +2370,7 @@
         <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M30" s="2">
         <v>551</v>
@@ -2289,33 +2379,39 @@
         <v>88</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="2">
-        <v>3000</v>
+        <v>141.5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2">
-        <v>1350000</v>
+        <v>138900</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>85</v>
@@ -2327,7 +2423,7 @@
         <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M31" s="2">
         <v>551</v>
@@ -2336,33 +2432,39 @@
         <v>88</v>
       </c>
       <c r="O31" s="2">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="2">
-        <v>141.5</v>
+        <v>334.6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H32" s="2">
-        <v>138900</v>
+        <v>42500</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>85</v>
@@ -2374,7 +2476,7 @@
         <v>87</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M32" s="2">
         <v>551</v>
@@ -2383,54 +2485,13 @@
         <v>88</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
         <v>334.6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H33" s="2">
-        <v>42500</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M33" s="2">
-        <v>551</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O33" s="2">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2440,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2450,178 +2511,152 @@
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>150.4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
-        <v>150.4</v>
+        <v>1120.7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2">
-        <v>1120.7</v>
+        <v>366.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="H3" s="2">
+        <v>440200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2">
-        <v>366.3</v>
+        <v>142.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="2">
-        <v>440200</v>
+        <v>2738900</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2">
-        <v>142.5</v>
+        <v>93.21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="2">
-        <v>2738900</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2">
-        <v>93.21</v>
+        <v>226.4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="H6" s="2">
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2">
-        <v>226.4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="2">
         <v>245400</v>
       </c>
     </row>
@@ -2632,7 +2667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2640,58 +2675,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>59</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1211482</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="2">
-        <v>1211482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2">
         <v>645056</v>
       </c>
     </row>
@@ -2702,7 +2717,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2716,16 +2731,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2751,28 +2766,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>86</v>
@@ -2781,7 +2796,7 @@
         <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
@@ -2790,33 +2805,33 @@
         <v>88</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2">
-        <v>200000</v>
+        <v>30000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>86</v>
@@ -2825,7 +2840,7 @@
         <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2">
         <v>551</v>
@@ -2834,50 +2849,6 @@
         <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="2">
-        <v>551</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2887,79 +2858,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2969,45 +2867,72 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="2">
+        <v>115</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1">
         <v>15000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>146</v>
+      <c r="F1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +2942,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3025,206 +2950,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
+      </c>
+      <c r="E1" s="1">
+        <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
-        <v>35800000</v>
+        <v>10000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E3" s="2">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2">
-        <v>1000000</v>
+        <v>84000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2">
-        <v>84000</v>
+        <v>95198</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2">
-        <v>95198</v>
+        <v>32700000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1120</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="2">
-        <v>32700000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>139</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1120</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="142">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中正區中正段三小段00820005地號</t>
+  </si>
+  <si>
     <t>臺北市中正區中正段三小段00830001地號</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>翁張宗美</t>
   </si>
   <si>
+    <t>87年06月03日</t>
+  </si>
+  <si>
     <t>87年09月17日</t>
   </si>
   <si>
@@ -292,36 +298,36 @@
     <t>臺北市中正區中正段三小段00404000建號</t>
   </si>
   <si>
+    <t>嘉義縣義竹郷龍蛟段工業小段00065000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣大林鎮中林段00019000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
+  </si>
+  <si>
+    <t>嘉義縣義竹鄉未編號</t>
+  </si>
+  <si>
     <t>87年09月17曰</t>
   </si>
   <si>
+    <t>98年02月10日</t>
+  </si>
+  <si>
+    <t>100年07月15曰</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>(超過五年陽台）</t>
   </si>
   <si>
-    <t>嘉義縣義竹郷龍蛟段工業小段00065000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣大林鎮中林段00019000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段00029000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉岸腳段01558000建號</t>
-  </si>
-  <si>
-    <t>嘉義縣義竹鄉未編號</t>
-  </si>
-  <si>
-    <t>98年02月10日</t>
-  </si>
-  <si>
-    <t>100年07月15曰</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>東麗紙業</t>
   </si>
   <si>
     <t>兆赫電子</t>
@@ -795,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -853,1341 +862,1341 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>727</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" s="2">
         <v>551</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.0241</v>
       </c>
       <c r="Q2" s="2">
-        <v>17.5207</v>
+        <v>0.4097</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" s="2">
         <v>551</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0241</v>
       </c>
       <c r="Q3" s="2">
-        <v>17.7135</v>
+        <v>17.5207</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>909.01</v>
+        <v>735</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M4" s="2">
         <v>551</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0181603773584906</v>
+        <v>0.0241</v>
       </c>
       <c r="Q4" s="2">
-        <v>16.5079646226415</v>
+        <v>17.7135</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>424</v>
+        <v>909.01</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" s="2">
         <v>551</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1</v>
+        <v>0.0181603773584906</v>
       </c>
       <c r="Q5" s="2">
-        <v>42.4</v>
+        <v>16.5079646226415</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>299.99</v>
+        <v>424</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6" s="2">
         <v>551</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.1</v>
       </c>
       <c r="Q6" s="2">
-        <v>29.999</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>17.38</v>
+        <v>299.99</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2">
         <v>551</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.738</v>
+        <v>29.999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>45.21</v>
+        <v>17.38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2">
         <v>551</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0.1</v>
       </c>
       <c r="Q8" s="2">
-        <v>4.521</v>
+        <v>1.738</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>8.01</v>
+        <v>45.21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="2">
         <v>551</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>0.1</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.801</v>
+        <v>4.521</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>645.03</v>
+        <v>8.01</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="2">
         <v>551</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0767295597484277</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" s="2">
-        <v>49.4928679245283</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>141.65</v>
+        <v>645.03</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M11" s="2">
         <v>551</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0181603773584906</v>
+        <v>0.0767295597484277</v>
       </c>
       <c r="Q11" s="2">
-        <v>2.57241745283019</v>
+        <v>49.4928679245283</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>2432</v>
+        <v>141.65</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4377528</v>
+        <v>84</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="2">
         <v>551</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0.0181603773584906</v>
       </c>
       <c r="Q12" s="2">
-        <v>2432</v>
+        <v>2.57241745283019</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>2089</v>
+        <v>2432</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="H13" s="2">
+        <v>4377528</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" s="2">
         <v>551</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>2089</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>3915</v>
+        <v>2089</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M14" s="2">
         <v>551</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>3915</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>622</v>
+        <v>3915</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="2">
         <v>551</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>207.333333333333</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>36</v>
+        <v>622</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" s="2">
         <v>551</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>36</v>
+        <v>207.333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M17" s="2">
         <v>551</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>175</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="2">
         <v>551</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>302</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M19" s="2">
         <v>551</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>130</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="2">
         <v>551</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>2</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="2">
-        <v>100772</v>
+        <v>84</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="2">
         <v>551</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
-        <v>0.195652173913043</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="H22" s="2">
+        <v>100772</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" s="2">
         <v>551</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0.195652173913043</v>
       </c>
       <c r="Q22" s="2">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M23" s="2">
         <v>551</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" s="2">
         <v>551</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q24" s="2">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M25" s="2">
         <v>551</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M26" s="2">
         <v>551</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>65</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>1221.37</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>57</v>
@@ -2196,157 +2205,157 @@
         <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="2">
         <v>551</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
-        <v>0.221476510067114</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>270.504765100671</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>252.6</v>
+        <v>1221.37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2">
         <v>551</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
         <v>0.221476510067114</v>
       </c>
       <c r="Q28" s="2">
-        <v>55.944966442953</v>
+        <v>270.504765100671</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>159.25</v>
+        <v>252.6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M29" s="2">
         <v>551</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
         <v>0.221476510067114</v>
       </c>
       <c r="Q29" s="2">
-        <v>35.2701342281879</v>
+        <v>55.944966442953</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>3000</v>
+        <v>159.25</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>59</v>
@@ -2355,142 +2364,195 @@
         <v>78</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1350000</v>
+        <v>85</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M30" s="2">
         <v>551</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0.221476510067114</v>
       </c>
       <c r="Q30" s="2">
-        <v>3000</v>
+        <v>35.2701342281879</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>141.5</v>
+        <v>3000</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2">
-        <v>138900</v>
+        <v>1350000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M31" s="2">
         <v>551</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O31" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2">
         <v>1</v>
       </c>
       <c r="Q31" s="2">
-        <v>141.5</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>334.6</v>
+        <v>141.5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H32" s="2">
-        <v>42500</v>
+        <v>138900</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M32" s="2">
         <v>551</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O32" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2">
         <v>1</v>
       </c>
       <c r="Q32" s="2">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>47</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <v>334.6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="2">
+        <v>42500</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="2">
+        <v>551</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>334.6</v>
       </c>
     </row>
@@ -2501,163 +2563,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2">
         <v>150.4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2">
+        <v>551</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1120.7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2">
+        <v>551</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1120.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2">
+        <v>366.3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2">
+        <v>440200</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2">
+        <v>551</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>55</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>366.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>56</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1120.7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>55</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="2">
-        <v>366.3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="2">
-        <v>440200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>56</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>142.5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2738900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="2">
-        <v>93.21</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2738900</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2">
+        <v>551</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="2">
+        <v>56</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>93.21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="2">
+        <v>166000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2">
+        <v>551</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>57</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>93.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2">
+        <v>226.4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="2">
-        <v>166000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2">
+        <v>245400</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="2">
+        <v>551</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="2">
         <v>58</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>226.4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="2">
-        <v>245400</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2675,16 +2952,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1">
         <v>1211482</v>
@@ -2692,21 +2969,41 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1211482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2">
         <v>645056</v>
       </c>
     </row>
@@ -2717,7 +3014,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2731,13 +3028,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2766,89 +3063,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2">
-        <v>200000</v>
+        <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2">
         <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2">
+        <v>551</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="2">
         <v>30000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="2">
-        <v>551</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="H4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2">
+        <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2858,6 +3199,73 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2867,72 +3275,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +3323,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2950,183 +3331,206 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
-        <v>10000000</v>
+        <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2">
-        <v>84000</v>
+        <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="2">
+        <v>84000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="2">
-        <v>95198</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2">
-        <v>32700000</v>
+        <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>138</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32700000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>139</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="2">
         <v>1120</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>126</v>
+      <c r="F9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>(超過五年陽台）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行景美分行</t>
@@ -2645,7 +2648,7 @@
         <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>88</v>
@@ -2698,7 +2701,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>88</v>
@@ -2751,7 +2754,7 @@
         <v>440200</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>88</v>
@@ -2804,7 +2807,7 @@
         <v>2738900</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>88</v>
@@ -2857,7 +2860,7 @@
         <v>166000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -2910,7 +2913,7 @@
         <v>245400</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>88</v>
@@ -2952,13 +2955,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
@@ -2972,13 +2975,13 @@
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>60</v>
@@ -2992,13 +2995,13 @@
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
@@ -3028,13 +3031,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3066,7 +3069,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -3078,13 +3081,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -3110,7 +3113,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -3122,13 +3125,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -3154,7 +3157,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -3166,13 +3169,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -3208,14 +3211,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3225,16 +3228,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3242,22 +3245,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3275,22 +3278,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3298,22 +3301,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3334,19 +3337,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3357,19 +3360,19 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3380,19 +3383,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3403,19 +3406,19 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3426,19 +3429,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3449,19 +3452,19 @@
         <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3472,19 +3475,19 @@
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3495,19 +3498,19 @@
         <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3518,19 +3521,19 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="146">
   <si>
     <t>name</t>
   </si>
@@ -331,25 +331,34 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行景美分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>東麗紙業</t>
@@ -2947,13 +2956,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
@@ -2964,24 +2973,45 @@
         <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1211482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>60</v>
@@ -2989,25 +3019,67 @@
       <c r="F2" s="2">
         <v>1211482</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2">
+        <v>551</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>645056</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2">
+        <v>551</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3031,13 +3103,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3069,7 +3141,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>60</v>
@@ -3081,13 +3153,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>2000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -3113,7 +3185,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -3125,13 +3197,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2">
         <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -3157,7 +3229,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>60</v>
@@ -3169,13 +3241,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2">
         <v>30000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -3211,14 +3283,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3228,16 +3300,16 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3245,22 +3317,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3278,22 +3350,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>15000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3301,22 +3373,22 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3337,19 +3409,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3360,19 +3432,19 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3383,19 +3455,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3406,19 +3478,19 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3429,19 +3501,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3452,19 +3524,19 @@
         <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3475,19 +3547,19 @@
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3498,19 +3570,19 @@
         <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3521,19 +3593,19 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -11,16 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
+    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -371,33 +370,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寳古董字畫及身</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>I額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>抵押權</t>
@@ -3275,7 +3247,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,53 +3258,42 @@
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3341,62 +3302,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -3409,19 +3314,19 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1">
         <v>35800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3432,19 +3337,19 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3455,19 +3360,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3478,19 +3383,19 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3501,19 +3406,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3524,19 +3429,19 @@
         <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3547,19 +3452,19 @@
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3570,19 +3475,19 @@
         <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3593,19 +3498,19 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
+++ b/legislator/property/output/normal/翁重鈞_2012-05-01_財產申報表_tmp6aad1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -372,6 +372,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>抵押權</t>
   </si>
   <si>
@@ -384,52 +390,64 @@
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>五王糧食股份有限公司</t>
   </si>
   <si>
+    <t>玉豐糧食股份有限公司</t>
+  </si>
+  <si>
+    <t>玉豐冷凍廠</t>
+  </si>
+  <si>
+    <t>群略投資股份有限公司</t>
+  </si>
+  <si>
+    <t>五王糧食(股)公司</t>
+  </si>
+  <si>
+    <t>宏遠証券(股)公司</t>
+  </si>
+  <si>
     <t>嘉義縣龍蚊村義工三路10號</t>
   </si>
   <si>
+    <t>嘉義縣龍蛟村義工三路10號</t>
+  </si>
+  <si>
+    <t>臺北市忠孝東路四段230號5樓</t>
+  </si>
+  <si>
+    <t>臺北市信義路四段236號3F</t>
+  </si>
+  <si>
     <t>86年09月30日</t>
   </si>
   <si>
+    <t>85年02月05日</t>
+  </si>
+  <si>
+    <t>74年03月26日</t>
+  </si>
+  <si>
+    <t>94年09月06日</t>
+  </si>
+  <si>
+    <t>99年01月01日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>玉豐糧食股份有限公司</t>
-  </si>
-  <si>
-    <t>玉豐冷凍廠</t>
-  </si>
-  <si>
-    <t>群略投資股份有限公司</t>
-  </si>
-  <si>
-    <t>五王糧食(股)公司</t>
-  </si>
-  <si>
-    <t>宏遠証券(股)公司</t>
-  </si>
-  <si>
-    <t>嘉義縣龍蛟村義工三路10號</t>
-  </si>
-  <si>
-    <t>臺北市忠孝東路四段230號5樓</t>
-  </si>
-  <si>
-    <t>臺北市信義路四段236號3F</t>
-  </si>
-  <si>
-    <t>85年02月05日</t>
-  </si>
-  <si>
-    <t>74年03月26日</t>
-  </si>
-  <si>
-    <t>94年09月06日</t>
-  </si>
-  <si>
-    <t>99年01月01日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3247,53 +3265,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="1">
-        <v>15000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>15000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2">
+        <v>551</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3303,33 +3363,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="1">
-        <v>35800000</v>
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>131</v>
       </c>
@@ -3337,22 +3418,43 @@
         <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>35800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2">
+        <v>551</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>132</v>
       </c>
@@ -3360,22 +3462,43 @@
         <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>10000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2">
+        <v>551</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>133</v>
       </c>
@@ -3383,22 +3506,43 @@
         <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2">
+        <v>551</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
         <v>133</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>134</v>
       </c>
@@ -3406,22 +3550,43 @@
         <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2">
         <v>1000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2">
+        <v>551</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>135</v>
       </c>
@@ -3429,22 +3594,43 @@
         <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2">
         <v>84000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2">
+        <v>551</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>136</v>
       </c>
@@ -3452,22 +3638,43 @@
         <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2">
         <v>95198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="2">
+        <v>551</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>138</v>
       </c>
@@ -3475,22 +3682,43 @@
         <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2">
         <v>32700000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2">
+        <v>551</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>139</v>
       </c>
@@ -3498,19 +3726,40 @@
         <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2">
         <v>1120</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="2">
+        <v>551</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
